--- a/docs/StructureDefinition-BundleAtenderLE.xlsx
+++ b/docs/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BundleAtenderLE.xlsx
+++ b/docs/StructureDefinition-BundleAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2691,17 +2691,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.08984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.13671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2710,26 +2710,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.55078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="74.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="78.88671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -41278,7 +41278,7 @@
         <v>85</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L341" t="s" s="2">
         <v>184</v>
@@ -44904,7 +44904,7 @@
         <v>85</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L373" t="s" s="2">
         <v>184</v>
@@ -48528,7 +48528,7 @@
         <v>85</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L405" t="s" s="2">
         <v>184</v>
@@ -52152,7 +52152,7 @@
         <v>85</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L437" t="s" s="2">
         <v>184</v>

--- a/docs/StructureDefinition-BundleAtenderLE.xlsx
+++ b/docs/StructureDefinition-BundleAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$433</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16608" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15468" uniqueCount="730">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,19 +563,19 @@
     <t>Bundle.entry</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Entry in the bundle - will have a resource or information</t>
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:profile}
+    <t xml:space="preserve">profile:resource}
 </t>
   </si>
   <si>
@@ -2029,31 +2029,31 @@
     <t>Bundle.entry:observation.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:conditionHipotesis</t>
-  </si>
-  <si>
-    <t>conditionHipotesis</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition {http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderHipotesisDiagnosticaCodigoLE}
+    <t>Bundle.entry:conditionDiagnosticoSospecha</t>
+  </si>
+  <si>
+    <t>conditionDiagnosticoSospecha</t>
+  </si>
+  <si>
+    <t>Bundle.entry:conditionDiagnosticoSospecha.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:conditionDiagnosticoSospecha.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:conditionDiagnosticoSospecha.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:conditionDiagnosticoSospecha.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:conditionDiagnosticoSospecha.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:conditionDiagnosticoSospecha.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition {http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderDiagnosticoSospechaLE}
 </t>
   </si>
   <si>
@@ -2071,109 +2071,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionHipotesis.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha</t>
-  </si>
-  <si>
-    <t>conditionDiagnosticoSospecha</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionDiagnosticoSospecha.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition {http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderDiagnosticoSospechaLE}
-</t>
   </si>
   <si>
     <t>Bundle.entry:conditionDiagnosticoSospecha.search</t>
@@ -2682,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN465"/>
+  <dimension ref="A1:AN433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -51673,17 +51570,15 @@
         <v>724</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C433" t="s" s="2">
-        <v>725</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="C433" s="2"/>
       <c r="D433" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E433" s="2"/>
       <c r="F433" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G433" t="s" s="2">
         <v>84</v>
@@ -51698,16 +51593,20 @@
         <v>85</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>142</v>
+        <v>725</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>175</v>
+        <v>726</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N433" s="2"/>
-      <c r="O433" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>729</v>
+      </c>
       <c r="P433" t="s" s="2">
         <v>75</v>
       </c>
@@ -51755,19 +51654,19 @@
         <v>75</v>
       </c>
       <c r="AF433" t="s" s="2">
-        <v>172</v>
+        <v>724</v>
       </c>
       <c r="AG433" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH433" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI433" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ433" t="s" s="2">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="AK433" t="s" s="2">
         <v>75</v>
@@ -51779,3637 +51678,11 @@
         <v>75</v>
       </c>
       <c r="AN433" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="434" hidden="true">
-      <c r="A434" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="B434" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C434" s="2"/>
-      <c r="D434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E434" s="2"/>
-      <c r="F434" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G434" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K434" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L434" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M434" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N434" s="2"/>
-      <c r="O434" s="2"/>
-      <c r="P434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q434" s="2"/>
-      <c r="R434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF434" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG434" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH434" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL434" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM434" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN434" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="435" hidden="true">
-      <c r="A435" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="B435" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C435" s="2"/>
-      <c r="D435" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E435" s="2"/>
-      <c r="F435" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K435" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L435" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M435" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N435" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O435" s="2"/>
-      <c r="P435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q435" s="2"/>
-      <c r="R435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF435" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG435" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ435" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL435" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM435" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN435" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="436" hidden="true">
-      <c r="A436" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="B436" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C436" s="2"/>
-      <c r="D436" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E436" s="2"/>
-      <c r="F436" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I436" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J436" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K436" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L436" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M436" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N436" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O436" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q436" s="2"/>
-      <c r="R436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF436" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG436" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ436" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL436" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM436" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN436" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="437" hidden="true">
-      <c r="A437" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="B437" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C437" s="2"/>
-      <c r="D437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E437" s="2"/>
-      <c r="F437" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J437" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L437" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M437" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-      <c r="P437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q437" s="2"/>
-      <c r="R437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF437" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AG437" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ437" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM437" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN437" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="438" hidden="true">
-      <c r="A438" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B438" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C438" s="2"/>
-      <c r="D438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E438" s="2"/>
-      <c r="F438" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G438" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J438" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K438" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L438" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M438" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N438" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O438" s="2"/>
-      <c r="P438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q438" s="2"/>
-      <c r="R438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF438" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG438" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH438" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ438" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM438" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN438" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="439" hidden="true">
-      <c r="A439" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="B439" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C439" s="2"/>
-      <c r="D439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E439" s="2"/>
-      <c r="F439" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G439" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K439" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="L439" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M439" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N439" s="2"/>
-      <c r="O439" s="2"/>
-      <c r="P439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q439" s="2"/>
-      <c r="R439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF439" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG439" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH439" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ439" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AK439" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AL439" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AM439" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN439" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="440" hidden="true">
-      <c r="A440" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="B440" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C440" s="2"/>
-      <c r="D440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E440" s="2"/>
-      <c r="F440" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G440" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J440" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K440" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L440" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M440" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N440" s="2"/>
-      <c r="O440" s="2"/>
-      <c r="P440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q440" s="2"/>
-      <c r="R440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF440" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG440" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH440" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI440" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AJ440" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM440" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN440" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="441" hidden="true">
-      <c r="A441" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="B441" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C441" s="2"/>
-      <c r="D441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E441" s="2"/>
-      <c r="F441" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G441" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K441" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L441" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M441" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N441" s="2"/>
-      <c r="O441" s="2"/>
-      <c r="P441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q441" s="2"/>
-      <c r="R441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF441" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG441" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH441" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL441" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM441" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN441" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="442" hidden="true">
-      <c r="A442" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="B442" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C442" s="2"/>
-      <c r="D442" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E442" s="2"/>
-      <c r="F442" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K442" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L442" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M442" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N442" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O442" s="2"/>
-      <c r="P442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q442" s="2"/>
-      <c r="R442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF442" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG442" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ442" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL442" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM442" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN442" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="443" hidden="true">
-      <c r="A443" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="B443" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C443" s="2"/>
-      <c r="D443" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E443" s="2"/>
-      <c r="F443" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I443" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J443" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K443" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L443" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M443" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N443" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O443" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q443" s="2"/>
-      <c r="R443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF443" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG443" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ443" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL443" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM443" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN443" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="444" hidden="true">
-      <c r="A444" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="B444" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C444" s="2"/>
-      <c r="D444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E444" s="2"/>
-      <c r="F444" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G444" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J444" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K444" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L444" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M444" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N444" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O444" s="2"/>
-      <c r="P444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q444" s="2"/>
-      <c r="R444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X444" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Y444" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z444" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AA444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF444" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG444" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH444" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ444" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM444" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN444" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="445" hidden="true">
-      <c r="A445" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="B445" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C445" s="2"/>
-      <c r="D445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E445" s="2"/>
-      <c r="F445" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G445" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J445" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K445" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L445" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M445" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N445" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O445" s="2"/>
-      <c r="P445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q445" s="2"/>
-      <c r="R445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF445" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG445" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH445" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ445" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM445" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN445" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="446" hidden="true">
-      <c r="A446" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="B446" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C446" s="2"/>
-      <c r="D446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E446" s="2"/>
-      <c r="F446" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G446" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J446" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K446" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L446" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M446" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N446" s="2"/>
-      <c r="O446" s="2"/>
-      <c r="P446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q446" s="2"/>
-      <c r="R446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF446" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG446" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH446" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI446" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AJ446" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM446" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN446" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="447" hidden="true">
-      <c r="A447" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="B447" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C447" s="2"/>
-      <c r="D447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E447" s="2"/>
-      <c r="F447" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G447" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K447" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L447" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M447" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N447" s="2"/>
-      <c r="O447" s="2"/>
-      <c r="P447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q447" s="2"/>
-      <c r="R447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF447" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG447" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH447" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL447" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM447" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN447" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="448" hidden="true">
-      <c r="A448" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B448" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C448" s="2"/>
-      <c r="D448" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E448" s="2"/>
-      <c r="F448" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K448" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L448" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M448" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N448" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O448" s="2"/>
-      <c r="P448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q448" s="2"/>
-      <c r="R448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF448" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG448" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ448" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL448" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM448" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN448" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="449" hidden="true">
-      <c r="A449" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="B449" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C449" s="2"/>
-      <c r="D449" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E449" s="2"/>
-      <c r="F449" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I449" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J449" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K449" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L449" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M449" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N449" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O449" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q449" s="2"/>
-      <c r="R449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF449" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG449" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ449" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL449" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN449" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="450" hidden="true">
-      <c r="A450" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="B450" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C450" s="2"/>
-      <c r="D450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E450" s="2"/>
-      <c r="F450" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G450" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J450" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K450" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L450" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M450" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N450" s="2"/>
-      <c r="O450" s="2"/>
-      <c r="P450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q450" s="2"/>
-      <c r="R450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X450" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Y450" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Z450" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AA450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF450" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG450" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH450" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ450" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM450" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN450" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="451" hidden="true">
-      <c r="A451" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="B451" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C451" s="2"/>
-      <c r="D451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E451" s="2"/>
-      <c r="F451" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G451" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J451" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K451" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L451" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M451" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N451" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O451" s="2"/>
-      <c r="P451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q451" s="2"/>
-      <c r="R451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF451" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG451" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH451" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ451" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM451" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN451" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="452" hidden="true">
-      <c r="A452" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="B452" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C452" s="2"/>
-      <c r="D452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E452" s="2"/>
-      <c r="F452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G452" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J452" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K452" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L452" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M452" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N452" s="2"/>
-      <c r="O452" s="2"/>
-      <c r="P452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q452" s="2"/>
-      <c r="R452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF452" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH452" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ452" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM452" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN452" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="453" hidden="true">
-      <c r="A453" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="B453" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C453" s="2"/>
-      <c r="D453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E453" s="2"/>
-      <c r="F453" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G453" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J453" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K453" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L453" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M453" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N453" s="2"/>
-      <c r="O453" s="2"/>
-      <c r="P453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q453" s="2"/>
-      <c r="R453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF453" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG453" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH453" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ453" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM453" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN453" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="454" hidden="true">
-      <c r="A454" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="B454" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C454" s="2"/>
-      <c r="D454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E454" s="2"/>
-      <c r="F454" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G454" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J454" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K454" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L454" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M454" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N454" s="2"/>
-      <c r="O454" s="2"/>
-      <c r="P454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q454" s="2"/>
-      <c r="R454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF454" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG454" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH454" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ454" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM454" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN454" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="455" hidden="true">
-      <c r="A455" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="B455" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C455" s="2"/>
-      <c r="D455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E455" s="2"/>
-      <c r="F455" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G455" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J455" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K455" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L455" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M455" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N455" s="2"/>
-      <c r="O455" s="2"/>
-      <c r="P455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q455" s="2"/>
-      <c r="R455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF455" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG455" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH455" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ455" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM455" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN455" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="456" hidden="true">
-      <c r="A456" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="B456" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C456" s="2"/>
-      <c r="D456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E456" s="2"/>
-      <c r="F456" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G456" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J456" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K456" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L456" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M456" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N456" s="2"/>
-      <c r="O456" s="2"/>
-      <c r="P456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q456" s="2"/>
-      <c r="R456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF456" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG456" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH456" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI456" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AJ456" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM456" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN456" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="457" hidden="true">
-      <c r="A457" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="B457" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C457" s="2"/>
-      <c r="D457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E457" s="2"/>
-      <c r="F457" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G457" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K457" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L457" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M457" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N457" s="2"/>
-      <c r="O457" s="2"/>
-      <c r="P457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q457" s="2"/>
-      <c r="R457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF457" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG457" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH457" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL457" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM457" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN457" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="458" hidden="true">
-      <c r="A458" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="B458" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C458" s="2"/>
-      <c r="D458" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E458" s="2"/>
-      <c r="F458" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K458" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L458" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M458" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N458" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O458" s="2"/>
-      <c r="P458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q458" s="2"/>
-      <c r="R458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF458" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG458" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ458" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL458" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM458" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN458" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="459" hidden="true">
-      <c r="A459" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="B459" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C459" s="2"/>
-      <c r="D459" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E459" s="2"/>
-      <c r="F459" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I459" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J459" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K459" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L459" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M459" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N459" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O459" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q459" s="2"/>
-      <c r="R459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF459" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG459" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ459" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL459" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM459" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN459" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="460" hidden="true">
-      <c r="A460" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B460" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C460" s="2"/>
-      <c r="D460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E460" s="2"/>
-      <c r="F460" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G460" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J460" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K460" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L460" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M460" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N460" s="2"/>
-      <c r="O460" s="2"/>
-      <c r="P460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q460" s="2"/>
-      <c r="R460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF460" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG460" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH460" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ460" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM460" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN460" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="461" hidden="true">
-      <c r="A461" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="B461" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C461" s="2"/>
-      <c r="D461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E461" s="2"/>
-      <c r="F461" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G461" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J461" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K461" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L461" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M461" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N461" s="2"/>
-      <c r="O461" s="2"/>
-      <c r="P461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q461" s="2"/>
-      <c r="R461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF461" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG461" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH461" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ461" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM461" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN461" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="462" hidden="true">
-      <c r="A462" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="B462" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C462" s="2"/>
-      <c r="D462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E462" s="2"/>
-      <c r="F462" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G462" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J462" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K462" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L462" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M462" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N462" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O462" s="2"/>
-      <c r="P462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q462" s="2"/>
-      <c r="R462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF462" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG462" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH462" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ462" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM462" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN462" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="463" hidden="true">
-      <c r="A463" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="B463" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C463" s="2"/>
-      <c r="D463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E463" s="2"/>
-      <c r="F463" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G463" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J463" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K463" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L463" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M463" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N463" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O463" s="2"/>
-      <c r="P463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q463" s="2"/>
-      <c r="R463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF463" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG463" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH463" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ463" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM463" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN463" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="464" hidden="true">
-      <c r="A464" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="B464" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C464" s="2"/>
-      <c r="D464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E464" s="2"/>
-      <c r="F464" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G464" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J464" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K464" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L464" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M464" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N464" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O464" s="2"/>
-      <c r="P464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q464" s="2"/>
-      <c r="R464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF464" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AG464" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH464" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM464" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN464" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="465" hidden="true">
-      <c r="A465" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="B465" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="C465" s="2"/>
-      <c r="D465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E465" s="2"/>
-      <c r="F465" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G465" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J465" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K465" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="L465" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="M465" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="N465" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="O465" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="P465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q465" s="2"/>
-      <c r="R465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF465" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="AG465" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH465" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ465" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM465" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN465" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN465">
+  <autoFilter ref="A1:AN433">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -55419,7 +51692,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI464">
+  <conditionalFormatting sqref="A2:AI432">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
